--- a/biology/Botanique/Halimione/Halimione.xlsx
+++ b/biology/Botanique/Halimione/Halimione.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halimione est un genre de plantes de la famille des Chenopodiaceae selon la classification classique de Cronquist (1981)[1] ou des Amaranthaceae selon la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halimione est un genre de plantes de la famille des Chenopodiaceae selon la classification classique de Cronquist (1981) ou des Amaranthaceae selon la classification phylogénétique.
 Selon les auteurs (d'après ITIS et GRIN), les espèces de Halimione sont placées dans le genre Atriplex.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (31 mai 2024)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (31 mai 2024) :
 Halimione pedunculata (L.) Aellen
 Halimione portulacoides (L.) Aellen
 Selon ITIS, les espèces de ce genre sont incorporées dans Atriplex :
